--- a/NYERERE.xlsx
+++ b/NYERERE.xlsx
@@ -6077,8 +6077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6418,10 +6418,12 @@
         <f t="shared" si="0"/>
         <v>9850</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="42">
+        <v>9650</v>
+      </c>
       <c r="J12" s="40">
         <f t="shared" si="1"/>
-        <v>9850</v>
+        <v>200</v>
       </c>
       <c r="K12" s="40"/>
       <c r="L12" s="37"/>
@@ -6683,11 +6685,11 @@
       </c>
       <c r="I20" s="50">
         <f t="shared" si="2"/>
-        <v>70308</v>
+        <v>79958</v>
       </c>
       <c r="J20" s="49">
         <f t="shared" si="2"/>
-        <v>66062</v>
+        <v>56412</v>
       </c>
       <c r="K20" s="40">
         <f t="shared" si="2"/>
@@ -6794,7 +6796,7 @@
       </c>
       <c r="G25" s="61">
         <f>I20</f>
-        <v>70308</v>
+        <v>79958</v>
       </c>
       <c r="H25" s="61"/>
       <c r="I25" s="42"/>
@@ -7003,7 +7005,7 @@
       </c>
       <c r="G35" s="64">
         <f>G25+G30+G29+G26-I31</f>
-        <v>51638</v>
+        <v>61288</v>
       </c>
       <c r="H35" s="64"/>
       <c r="I35" s="64">
@@ -7012,7 +7014,7 @@
       </c>
       <c r="J35" s="64">
         <f>G35-I35</f>
-        <v>-53342</v>
+        <v>-43692</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>

--- a/NYERERE.xlsx
+++ b/NYERERE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="405" windowWidth="15480" windowHeight="11490" firstSheet="10" activeTab="13"/>
   </bookViews>
@@ -27,12 +22,12 @@
     <sheet name="NOVEMBER 21" sheetId="13" r:id="rId13"/>
     <sheet name="DECEMBER 21" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="138">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -441,11 +436,17 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER  2021</t>
   </si>
+  <si>
+    <t>PAIN ON 14/12</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -780,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,7 +816,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5056,7 +5057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -6077,13 +6078,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6179,7 +6180,7 @@
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40">
-        <f>'OCTOBER 21'!J5</f>
+        <f>'NOVEMBER 21'!J5:J19</f>
         <v>0</v>
       </c>
       <c r="E5" s="40"/>
@@ -6197,7 +6198,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="37"/>
     </row>
-    <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>33</v>
       </c>
@@ -6206,7 +6207,7 @@
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40">
-        <f>'OCTOBER 21'!J6</f>
+        <f>'NOVEMBER 21'!J6:J20</f>
         <v>0</v>
       </c>
       <c r="E6" s="40">
@@ -6230,7 +6231,7 @@
       <c r="K6" s="40"/>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>34</v>
       </c>
@@ -6239,7 +6240,7 @@
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40">
-        <f>'OCTOBER 21'!J7</f>
+        <f>'NOVEMBER 21'!J7:J21</f>
         <v>0</v>
       </c>
       <c r="E7" s="40">
@@ -6265,7 +6266,7 @@
       <c r="K7" s="40"/>
       <c r="L7" s="37"/>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>35</v>
       </c>
@@ -6274,10 +6275,12 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="40">
-        <f>'OCTOBER 21'!J8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="40"/>
+        <f>'NOVEMBER 21'!J8:J22</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>250</v>
+      </c>
       <c r="F8" s="40">
         <v>340</v>
       </c>
@@ -6286,17 +6289,19 @@
       </c>
       <c r="H8" s="40">
         <f>D8+G8+C8+F8+E8</f>
+        <v>9590</v>
+      </c>
+      <c r="I8" s="42">
         <v>9340</v>
       </c>
-      <c r="I8" s="42"/>
       <c r="J8" s="40">
         <f t="shared" si="1"/>
-        <v>9340</v>
+        <v>250</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="37"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>36</v>
       </c>
@@ -6305,7 +6310,7 @@
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="40">
-        <f>'OCTOBER 21'!J9</f>
+        <f>'NOVEMBER 21'!J9:J23</f>
         <v>0</v>
       </c>
       <c r="E9" s="40"/>
@@ -6323,7 +6328,7 @@
       <c r="K9" s="40"/>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>37</v>
       </c>
@@ -6332,33 +6337,33 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40">
-        <f>'OCTOBER 21'!J10</f>
-        <v>0</v>
+        <f>'NOVEMBER 21'!J10:J24</f>
+        <v>-30</v>
       </c>
       <c r="E10" s="40">
         <v>250</v>
       </c>
       <c r="F10" s="40">
-        <v>40</v>
+        <v>750</v>
       </c>
       <c r="G10" s="40">
         <v>12000</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="0"/>
-        <v>12290</v>
+        <v>12970</v>
       </c>
       <c r="I10" s="42">
-        <v>12898</v>
+        <v>13000</v>
       </c>
       <c r="J10" s="40">
         <f t="shared" si="1"/>
-        <v>-608</v>
+        <v>-30</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>38</v>
       </c>
@@ -6367,8 +6372,8 @@
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="40">
-        <f>'OCTOBER 21'!J11</f>
-        <v>14110</v>
+        <f>'NOVEMBER 21'!J11:J25</f>
+        <v>8020</v>
       </c>
       <c r="E11" s="40">
         <v>250</v>
@@ -6381,19 +6386,19 @@
       </c>
       <c r="H11" s="40">
         <f t="shared" si="0"/>
-        <v>28180</v>
+        <v>22090</v>
       </c>
       <c r="I11" s="42">
         <v>7360</v>
       </c>
       <c r="J11" s="40">
         <f t="shared" si="1"/>
-        <v>20820</v>
+        <v>14730</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>39</v>
       </c>
@@ -6402,7 +6407,7 @@
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40">
-        <f>'OCTOBER 21'!J12</f>
+        <f>'NOVEMBER 21'!J12:J26</f>
         <v>0</v>
       </c>
       <c r="E12" s="40">
@@ -6428,7 +6433,7 @@
       <c r="K12" s="40"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>40</v>
       </c>
@@ -6437,7 +6442,7 @@
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40">
-        <f>'OCTOBER 21'!J13</f>
+        <f>'NOVEMBER 21'!J13:J27</f>
         <v>0</v>
       </c>
       <c r="E13" s="40">
@@ -6463,7 +6468,7 @@
       <c r="K13" s="40"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>41</v>
       </c>
@@ -6472,7 +6477,7 @@
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40">
-        <f>'OCTOBER 21'!J14</f>
+        <f>'NOVEMBER 21'!J14:J28</f>
         <v>0</v>
       </c>
       <c r="E14" s="40">
@@ -6498,7 +6503,7 @@
       <c r="K14" s="40"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>42</v>
       </c>
@@ -6507,25 +6512,25 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="40">
-        <f>'OCTOBER 21'!J15</f>
-        <v>30</v>
+        <f>'NOVEMBER 21'!J15:J29</f>
+        <v>0</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="40">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>43</v>
       </c>
@@ -6534,8 +6539,8 @@
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40">
-        <f>'OCTOBER 21'!J16</f>
-        <v>1310</v>
+        <f>'NOVEMBER 21'!J16:J30</f>
+        <v>1520</v>
       </c>
       <c r="E16" s="40">
         <v>250</v>
@@ -6548,19 +6553,19 @@
       </c>
       <c r="H16" s="40">
         <f t="shared" si="0"/>
-        <v>15080</v>
+        <v>15290</v>
       </c>
       <c r="I16" s="42">
         <v>12500</v>
       </c>
       <c r="J16" s="40">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2790</v>
       </c>
       <c r="K16" s="40"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
@@ -6569,8 +6574,8 @@
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="40">
-        <f>'OCTOBER 21'!J17</f>
-        <v>0</v>
+        <f>'NOVEMBER 21'!J17:J31</f>
+        <v>250</v>
       </c>
       <c r="E17" s="40">
         <v>250</v>
@@ -6583,12 +6588,14 @@
       </c>
       <c r="H17" s="40">
         <f t="shared" si="0"/>
+        <v>15120</v>
+      </c>
+      <c r="I17" s="42">
         <v>14870</v>
       </c>
-      <c r="I17" s="42"/>
       <c r="J17" s="40">
         <f t="shared" si="1"/>
-        <v>14870</v>
+        <v>250</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="37"/>
@@ -6600,7 +6607,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40">
-        <f>'OCTOBER 21'!J18</f>
+        <f>'NOVEMBER 21'!J18:J32</f>
         <v>0</v>
       </c>
       <c r="E18" s="40"/>
@@ -6618,7 +6625,7 @@
       <c r="K18" s="40"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>46</v>
       </c>
@@ -6627,8 +6634,8 @@
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="40">
-        <f>'OCTOBER 21'!J19</f>
-        <v>0</v>
+        <f>'NOVEMBER 21'!J19:J33</f>
+        <v>-210</v>
       </c>
       <c r="E19" s="40">
         <v>250</v>
@@ -6641,7 +6648,7 @@
       </c>
       <c r="H19" s="42">
         <f t="shared" si="0"/>
-        <v>10370</v>
+        <v>10160</v>
       </c>
       <c r="I19" s="42">
         <f>7800+2570</f>
@@ -6649,7 +6656,7 @@
       </c>
       <c r="J19" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="37"/>
@@ -6665,15 +6672,15 @@
       </c>
       <c r="D20" s="40">
         <f>SUM(D5:D19)</f>
-        <v>15450</v>
+        <v>9550</v>
       </c>
       <c r="E20" s="40">
         <f t="shared" ref="E20:K20" si="2">SUM(E5:E19)</f>
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="F20" s="40">
         <f t="shared" si="2"/>
-        <v>11420</v>
+        <v>12130</v>
       </c>
       <c r="G20" s="49">
         <f t="shared" si="2"/>
@@ -6681,15 +6688,15 @@
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
-        <v>136370</v>
+        <v>131430</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="2"/>
-        <v>79958</v>
+        <v>104270</v>
       </c>
       <c r="J20" s="49">
         <f t="shared" si="2"/>
-        <v>56412</v>
+        <v>27160</v>
       </c>
       <c r="K20" s="40">
         <f t="shared" si="2"/>
@@ -6698,130 +6705,130 @@
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="40">
-        <f>'SEPTEMBER 21'!J21:J36</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="51"/>
+      <c r="A21" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="57"/>
+      <c r="A22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="54"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="37"/>
+      <c r="A24" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="61">
+        <f>G20</f>
+        <v>107000</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="61">
+        <f>I20</f>
+        <v>104270</v>
+      </c>
+      <c r="H24" s="61"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="61">
-        <f>G20</f>
-        <v>107000</v>
+        <f>'NOVEMBER 21'!E35</f>
+        <v>8370</v>
       </c>
       <c r="D25" s="42"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="42" t="s">
-        <v>132</v>
+      <c r="E25" s="42"/>
+      <c r="F25" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="G25" s="61">
-        <f>I20</f>
-        <v>79958</v>
+        <f>'NOVEMBER 21'!J35</f>
+        <v>3060</v>
       </c>
       <c r="H25" s="61"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
-      <c r="K25" s="62"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="61">
-        <f>'OCTOBER 21'!E37</f>
-        <v>0</v>
+        <f>F20</f>
+        <v>12130</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="61">
-        <f>'OCTOBER 21'!J37</f>
-        <v>-11180</v>
-      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="61"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
@@ -6830,17 +6837,17 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="61">
-        <f>F20</f>
-        <v>11420</v>
+        <f>E20</f>
+        <v>2750</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
-      <c r="G27" s="61"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="61"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
@@ -6849,12 +6856,12 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="61">
-        <f>E20</f>
-        <v>2500</v>
+        <f>K20</f>
+        <v>0</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
@@ -6868,17 +6875,14 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="61">
-        <f>K20</f>
-        <v>0</v>
-      </c>
+      <c r="C29" s="61"/>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="61"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -6887,146 +6891,150 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B30" s="42"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30" s="61">
+        <f>C30*C24</f>
+        <v>7490.0000000000009</v>
+      </c>
       <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="42"/>
+      <c r="F30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="61">
+        <f>G30*C24</f>
+        <v>7490.0000000000009</v>
+      </c>
       <c r="J30" s="42"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D31" s="61">
-        <f>C31*C25</f>
-        <v>7490.0000000000009</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="61">
-        <f>G31*C25</f>
-        <v>7490.0000000000009</v>
-      </c>
-      <c r="J31" s="42"/>
+      <c r="A31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>24</v>
+      <c r="A32" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="64"/>
-      <c r="D32" s="50"/>
+      <c r="D32" s="42">
+        <v>122760</v>
+      </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="64"/>
+      <c r="F32" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="50"/>
       <c r="H32" s="64"/>
-      <c r="I32" s="50"/>
+      <c r="I32" s="42">
+        <v>122760</v>
+      </c>
       <c r="J32" s="50"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="42">
-        <v>104980</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="42">
-        <v>104980</v>
-      </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="37"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
       <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
+      <c r="A34" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="64">
+        <f>C24+C25+C26+C27+C28+C29-D30</f>
+        <v>122760</v>
+      </c>
+      <c r="D34" s="64">
+        <f>SUM(D32:D33)</f>
+        <v>122760</v>
+      </c>
+      <c r="E34" s="64">
+        <f>C34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="64">
+        <f>G24+G29+G28+G25-I30</f>
+        <v>99840</v>
+      </c>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64">
+        <f>SUM(I32:I33)</f>
+        <v>122760</v>
+      </c>
+      <c r="J34" s="64">
+        <f>G34-I34</f>
+        <v>-22920</v>
+      </c>
+      <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="64">
-        <f>C25+C26+C27+C28+C29+C30-D31</f>
-        <v>113430</v>
-      </c>
-      <c r="D35" s="64">
-        <f>SUM(D33:D34)</f>
-        <v>104980</v>
-      </c>
-      <c r="E35" s="64">
-        <f>C35-D35</f>
-        <v>8450</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="64">
-        <f>G25+G30+G29+G26-I31</f>
-        <v>61288</v>
-      </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64">
-        <f>SUM(I33:I34)</f>
-        <v>104980</v>
-      </c>
-      <c r="J35" s="64">
-        <f>G35-I35</f>
-        <v>-43692</v>
-      </c>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="D36" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -7035,17 +7043,17 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -7054,23 +7062,6 @@
       <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
       <c r="L38" s="37"/>
     </row>
   </sheetData>
